--- a/data_set_for_TCost.xlsx
+++ b/data_set_for_TCost.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="with_price" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,86 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -404,9 +472,7 @@
           <t>Аскиз</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>20479</v>
-      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -442,7 +508,9 @@
           <t>Уфа</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>1590</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -460,7 +528,9 @@
           <t>Тюмень</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>1490</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -478,9 +548,7 @@
           <t>Волхов</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>38234</v>
-      </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -498,7 +566,9 @@
           <t>Вязьма</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>1660</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -516,9 +586,7 @@
           <t>Ершов</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>30776</v>
-      </c>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -536,9 +604,7 @@
           <t>Кстово</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>7185</v>
-      </c>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -574,9 +640,7 @@
           <t>Иркутск</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>66880</v>
-      </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1029,6 +1093,6 @@
       <c r="D36" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>